--- a/target/classes/data.xlsx
+++ b/target/classes/data.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="7410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="7410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L22"/>
+  <oleSize ref="A1:J22"/>
 </workbook>
 </file>
 
@@ -27,9 +27,6 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>Dec</t>
-  </si>
-  <si>
     <t>This is a test</t>
   </si>
   <si>
@@ -40,6 +37,9 @@
   </si>
   <si>
     <t>wrongpass</t>
+  </si>
+  <si>
+    <t>Apr</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -394,7 +394,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,31 +427,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E1">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="H1">
         <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
